--- a/lancers/説明.xlsx
+++ b/lancers/説明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\menta_kadai\kadai_python\lancers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\提出\submission\lancers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEFAB80-0F7E-4409-AA85-CA6720F1CCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E750B1-F63F-48AF-AF4A-D92F4ECD6C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2965,48 +2965,6 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>（検索条件が保存されます。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　次回アプリ起動時に最終検索の条件が表示されます）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>

--- a/lancers/説明.xlsx
+++ b/lancers/説明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python\提出\submission\lancers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E750B1-F63F-48AF-AF4A-D92F4ECD6C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54D536-5F66-42EC-96CC-835C6C572D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,8 +1455,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -1477,16 +1477,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1314450" y="11982450"/>
-          <a:ext cx="11073333" cy="3160000"/>
+          <a:off x="1317251" y="12001500"/>
+          <a:ext cx="11037475" cy="2964457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,7 +3461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82947684-A8A7-43FE-AA3E-76FA01A021D3}">
   <dimension ref="A1:B354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y56" sqref="Y56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
